--- a/URS/DbLayouts/L4-批次作業/InsuRenew.xlsx
+++ b/URS/DbLayouts/L4-批次作業/InsuRenew.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B2FD8A-3E59-45C7-85EC-8469B366635C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="媒體檔規格" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="284">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -243,15 +242,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RenewCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.自保
-2.續保</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>ClCode1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -346,14 +336,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>到期迄日的前一個月產出當月份的資料</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrigInsuNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>StatusCode</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -370,21 +352,9 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>NotiTempFg</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Decimald</t>
   </si>
   <si>
-    <t>findCustEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EthqInsuCovrg</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -397,22 +367,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>findL4965A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL4965B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL4965C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL4965D</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>NowInsuNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -425,19 +379,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>findL4965Z</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>InsuEndDate</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">InsuEndDate &gt;= ,AND InsuEndDate &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NowInsuNo = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -453,18 +399,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">InsuCompany = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>InsuCompany</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">InsuTypeCode = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>InsuTypeCode</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -517,10 +455,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>InsuYearMonth</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>prevInsuNoFirst</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -545,10 +479,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">InsuYearMonth = ,AND CustNo = ,AND FacmNo = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -561,11 +491,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Y:已入
-N:未入</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>findL4604A</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -599,10 +524,6 @@
   </si>
   <si>
     <t>批單號碼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndoInsuNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -614,19 +535,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND NowInsuNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>findL4600AFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND PrevInsuNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL4605A</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -639,10 +548,6 @@
 2:催收
 4:結案</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FacmNo ASC,InsuEndDate Desc,InsuStartDate ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>總保費</t>
@@ -1111,11 +1016,98 @@
 8:劃撥存款</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>火險單年月</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndoInsuNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotiTempFg</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NotiTempFg = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuYearMonth</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuYearMonth Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:已入
+N:未入(通知作業後新增)
+null:待通知</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.
+1.自保
+2.續保</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrigInsuNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenewCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuEndDate Desc,OrigInsuNo Asc,EndoInsuNo Asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insuEndDateRange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustEq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND NowInsuNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findNotiTempFgFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findPrevInsuNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND PrevInsuNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ClCode1 = ,AND ClCode2 = ,AND ClNo = ,AND NowInsuNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuEndDate Desc,InsuStartDate ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findNowInsuNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -1426,7 +1418,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1517,23 +1509,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1569,23 +1544,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1761,11 +1719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1798,7 +1756,7 @@
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1813,7 +1771,7 @@
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="12" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1839,7 +1797,7 @@
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1852,7 +1810,7 @@
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1865,7 +1823,7 @@
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1874,11 +1832,11 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="31" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10"/>
@@ -1887,11 +1845,11 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="31" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="10"/>
@@ -1926,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>27</v>
@@ -1944,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>28</v>
@@ -1962,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>29</v>
@@ -1980,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>30</v>
@@ -1998,10 +1956,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>46</v>
@@ -2010,7 +1968,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2018,10 +1976,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>131</v>
+        <v>267</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>146</v>
+        <v>263</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>49</v>
@@ -2030,7 +1988,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2074,10 +2032,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>46</v>
@@ -2092,7 +2050,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>31</v>
@@ -2105,12 +2063,12 @@
       </c>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" ht="32.4">
+    <row r="21" spans="1:7" ht="48.6">
       <c r="A21" s="19">
         <v>11</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>61</v>
+        <v>272</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>32</v>
@@ -2122,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>62</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2130,7 +2088,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>33</v>
@@ -2148,7 +2106,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>34</v>
@@ -2160,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="145.80000000000001">
@@ -2168,19 +2126,19 @@
         <v>14</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" s="19">
         <v>1</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2206,7 +2164,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>36</v>
@@ -2242,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>38</v>
@@ -2260,13 +2218,13 @@
         <v>19</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E29" s="25">
         <v>8</v>
@@ -2278,13 +2236,13 @@
         <v>20</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E30" s="25">
         <v>8</v>
@@ -2299,7 +2257,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>50</v>
@@ -2320,7 +2278,7 @@
         <v>41</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E32" s="25">
         <v>8</v>
@@ -2365,15 +2323,15 @@
       </c>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" ht="32.4">
+    <row r="35" spans="1:7" ht="48.6">
       <c r="A35" s="19">
         <v>25</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>46</v>
@@ -2382,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="64.8">
@@ -2390,10 +2348,10 @@
         <v>26</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>51</v>
@@ -2402,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2410,7 +2368,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>44</v>
@@ -2428,7 +2386,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>45</v>
@@ -2446,13 +2404,13 @@
         <v>29</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E39" s="25"/>
       <c r="G39" s="24"/>
@@ -2462,13 +2420,13 @@
         <v>30</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E40" s="25">
         <v>6</v>
@@ -2480,13 +2438,13 @@
         <v>31</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E41" s="25"/>
       <c r="G41" s="24"/>
@@ -2496,13 +2454,13 @@
         <v>32</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E42" s="25">
         <v>6</v>
@@ -2560,19 +2518,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21:C24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="93.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" style="1" customWidth="1"/>
+    <col min="3" max="3" width="80" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2592,10 +2550,10 @@
         <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2603,10 +2561,10 @@
         <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2614,10 +2572,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2625,10 +2583,10 @@
         <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2636,241 +2594,219 @@
         <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>274</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>279</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>136</v>
+        <v>278</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>141</v>
+        <v>266</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>275</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>148</v>
+        <v>276</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>159</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>150</v>
+        <v>283</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>149</v>
+        <v>281</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>159</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2881,7 +2817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56225BF0-B6B9-46F3-84AD-EC1FD1ED090D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2903,28 +2839,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" thickBot="1">
       <c r="A1" s="26" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2932,13 +2868,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E2" s="28">
         <v>6</v>
@@ -2951,7 +2887,7 @@
       </c>
       <c r="H2" s="29"/>
       <c r="I2" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2959,13 +2895,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E3" s="28">
         <v>2</v>
@@ -2979,7 +2915,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2987,13 +2923,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E4" s="28">
         <v>2</v>
@@ -3007,7 +2943,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3015,13 +2951,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E5" s="28">
         <v>10</v>
@@ -3035,7 +2971,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3043,13 +2979,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E6" s="28">
         <v>12</v>
@@ -3063,7 +2999,7 @@
         <v>32</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3071,13 +3007,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E7" s="28">
         <v>10</v>
@@ -3091,7 +3027,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3099,13 +3035,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E8" s="28">
         <v>12</v>
@@ -3119,7 +3055,7 @@
         <v>54</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3127,13 +3063,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E9" s="28">
         <v>5</v>
@@ -3153,13 +3089,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E10" s="28">
         <v>58</v>
@@ -3173,7 +3109,7 @@
         <v>117</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3181,13 +3117,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E11" s="28">
         <v>9</v>
@@ -3201,7 +3137,7 @@
         <v>126</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3209,13 +3145,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E12" s="28">
         <v>2</v>
@@ -3235,13 +3171,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E13" s="28">
         <v>3</v>
@@ -3255,7 +3191,7 @@
         <v>131</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3263,13 +3199,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E14" s="28">
         <v>2</v>
@@ -3283,7 +3219,7 @@
         <v>133</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3291,13 +3227,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E15" s="28">
         <v>2</v>
@@ -3311,7 +3247,7 @@
         <v>135</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3319,13 +3255,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E16" s="28">
         <v>4</v>
@@ -3347,13 +3283,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E17" s="28">
         <v>1</v>
@@ -3373,13 +3309,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E18" s="28">
         <v>2</v>
@@ -3399,13 +3335,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E19" s="28">
         <v>7</v>
@@ -3425,13 +3361,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E20" s="28">
         <v>2</v>
@@ -3445,7 +3381,7 @@
         <v>151</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3453,13 +3389,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E21" s="28">
         <v>16</v>
@@ -3479,13 +3415,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E22" s="28">
         <v>10</v>
@@ -3499,7 +3435,7 @@
         <v>177</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3507,13 +3443,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E23" s="28">
         <v>10</v>
@@ -3527,7 +3463,7 @@
         <v>187</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3535,13 +3471,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E24" s="28">
         <v>11</v>
@@ -3555,7 +3491,7 @@
         <v>198</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3563,13 +3499,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E25" s="28">
         <v>7</v>
@@ -3583,7 +3519,7 @@
         <v>205</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3591,13 +3527,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E26" s="28">
         <v>7</v>
@@ -3611,7 +3547,7 @@
         <v>212</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3619,13 +3555,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E27" s="28">
         <v>6</v>
@@ -3639,7 +3575,7 @@
         <v>218</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3647,13 +3583,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E28" s="28">
         <v>7</v>
@@ -3667,7 +3603,7 @@
         <v>225</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3675,13 +3611,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E29" s="28">
         <v>3</v>
@@ -3695,7 +3631,7 @@
         <v>228</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3703,13 +3639,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E30" s="28">
         <v>4</v>
@@ -3729,13 +3665,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E31" s="28">
         <v>14</v>
@@ -3749,7 +3685,7 @@
         <v>246</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3757,13 +3693,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E32" s="28">
         <v>16</v>
@@ -3777,16 +3713,16 @@
         <v>262</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="K32" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3794,13 +3730,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E33" s="28">
         <v>10</v>
@@ -3814,13 +3750,13 @@
         <v>272</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="I33" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="J33" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3828,13 +3764,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E34" s="28">
         <v>10</v>
@@ -3848,13 +3784,13 @@
         <v>282</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="J34" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3862,13 +3798,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E35" s="28">
         <v>11</v>
@@ -3882,13 +3818,13 @@
         <v>293</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="I35" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="J35" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3896,13 +3832,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E36" s="28">
         <v>7</v>
@@ -3916,13 +3852,13 @@
         <v>300</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="I36" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="J36" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3930,13 +3866,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E37" s="28">
         <v>8</v>
@@ -3950,13 +3886,13 @@
         <v>308</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="I37" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="J37" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3964,13 +3900,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E38" s="28">
         <v>6</v>
@@ -3984,13 +3920,13 @@
         <v>314</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="I38" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="J38" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3998,13 +3934,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E39" s="28">
         <v>7</v>
@@ -4018,13 +3954,13 @@
         <v>321</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="I39" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="J39" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4032,13 +3968,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E40" s="28">
         <v>16</v>
@@ -4058,13 +3994,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E41" s="28">
         <v>60</v>
@@ -4084,13 +4020,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E42" s="28">
         <v>39</v>
@@ -4110,13 +4046,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E43" s="28">
         <v>10</v>
@@ -4136,13 +4072,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E44" s="28">
         <v>6</v>
@@ -4162,13 +4098,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E45" s="28">
         <v>10</v>
@@ -4188,13 +4124,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E46" s="28">
         <v>6</v>
@@ -4208,7 +4144,7 @@
         <v>468</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4216,13 +4152,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E47" s="28">
         <v>8</v>
@@ -4242,13 +4178,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="E48" s="28">
         <v>10</v>
@@ -4266,5 +4202,6 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>